--- a/biology/Botanique/Samare/Samare.xlsx
+++ b/biology/Botanique/Samare/Samare.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En botanique, la samare[1],[2] est un fruit sec indéhiscent, c'est-à-dire un akène (contenant une seule graine), muni d'une excroissance en forme d'aile membraneuse, formée par le péricarpe.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En botanique, la samare, est un fruit sec indéhiscent, c'est-à-dire un akène (contenant une seule graine), muni d'une excroissance en forme d'aile membraneuse, formée par le péricarpe.
 Cette particularité est présente chez de nombreuses espèces appartenant à des familles botaniques différentes.
 La forme de l'aile, qui a pour fonction d'aider à la dissémination du fruit, est variable : allongée chez le frêne, parfois dissymétrique chez l'érable, circulaire enveloppant l'akène chez l'orme...
-Ce mode de dispersion des graines, utilisant l'air et le vent, s'appelle l'anémochorie. Plus précisément des chercheurs gueldrois de l'Université de Wageningen ont montré que la chute tournoyante des samares est ralentie par la formation de tourbillons d'air au-dessus des ailes du fruit. Ces tourbillons, nommés vortex de bord d'attaque, concernent également certains insectes et les chauves-souris[3].
+Ce mode de dispersion des graines, utilisant l'air et le vent, s'appelle l'anémochorie. Plus précisément des chercheurs gueldrois de l'Université de Wageningen ont montré que la chute tournoyante des samares est ralentie par la formation de tourbillons d'air au-dessus des ailes du fruit. Ces tourbillons, nommés vortex de bord d'attaque, concernent également certains insectes et les chauves-souris.
 On distingue :
 la samare simple : c'est par exemple le fruit du frêne, de l'orme, du tulipier de Virginie, de l'ailante ou de certaines Légumineuses (Tipuana tipu) ;
 la samare double ou disamare (qui dérive d'un ovaire à deux carpelles) : c'est le fruit des érables (Acéracées).
